--- a/dataset/raw/sumathi.xlsx
+++ b/dataset/raw/sumathi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsnra\Desktop\chandassu\dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D561A80-F570-4D92-A5AF-93A747632301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC71D91-30E8-4BD6-B257-92D3515C2BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,12 +181,6 @@
 గొల్లండును గొల్లఁడౌనె గుణమున సుమతీ!</t>
   </si>
   <si>
-    <t>ఓడల బండ్లును వచ్చును
-ఓడలు నాబండ్లమీఁద నొప్పుగ వచ్చు\న్‌
-ఓడలు బండ్లును వలెనే 
-వాడంబడుఁ గలిమి లేమి వసుధను సుమతీ!</t>
-  </si>
-  <si>
     <t>కడు బలవంతుండైనను
 బుడమినిఁ బ్రాయంపుటాలిఁ బుట్టినయింటన్‌
 దడవుండ నిచ్చెనేనియుఁ
@@ -693,6 +687,12 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>ఓడల బండ్లును వచ్చును
+ఓడలు నాబండ్లమీఁద నొప్పుగ వచ్చున్
+ఓడలు బండ్లును వలెనే 
+వాడంబడుఁ గలిమి లేమి వసుధను సుమతీ!</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1483,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1525,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1553,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1581,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1623,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1651,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1665,7 +1665,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1679,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1707,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1721,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1763,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1777,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1791,7 +1791,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1819,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1847,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1889,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1903,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1917,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1931,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1945,7 +1945,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -2001,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -2015,7 +2015,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2043,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -2057,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -2071,7 +2071,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -2085,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -2113,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -2127,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -2141,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -2155,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -2169,7 +2169,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -2183,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2197,7 +2197,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -2211,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -2225,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -2253,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -2267,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2281,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2295,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2309,7 +2309,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -2323,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2337,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -2351,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2365,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2379,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2393,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2407,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2421,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2435,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2449,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -2477,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2491,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2505,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2519,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2533,7 +2533,7 @@
         <v>4</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2547,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -2575,7 +2575,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -2589,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
